--- a/keeling/OLR/OLR_keeling.xlsx
+++ b/keeling/OLR/OLR_keeling.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ucsdcloud-my.sharepoint.com/personal/rejohnson_ucsd_edu/Documents/Workspace/Latest Excel template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\domm-metadata\keeling\OLR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23790" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" tabRatio="385"/>
   </bookViews>
   <sheets>
     <sheet name="Item description" sheetId="9" r:id="rId1"/>
     <sheet name="Select-a-header values" sheetId="14" r:id="rId2"/>
     <sheet name="CV values" sheetId="10" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
@@ -26,7 +29,7 @@
     <author>Windows User</author>
   </authors>
   <commentList>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -36,7 +39,25 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>COLLECTION RECORD ONLY</t>
+          <t xml:space="preserve">Examples:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>circa 1887
+circa 75,000 B.C.
+1901-1909
+between 1901 and 1909
+May 4, 2001
+2001-05-04
+July, 1978
+Summer, 1986
+between 1961 and 1976</t>
         </r>
       </text>
     </comment>
@@ -142,26 +163,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>COLLECTION RECORD ONLY</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="776">
   <si>
     <t>text</t>
   </si>
@@ -1666,12 +1673,6 @@
     <t>digitized other analog</t>
   </si>
   <si>
-    <t>File name 2</t>
-  </si>
-  <si>
-    <t>File use 2</t>
-  </si>
-  <si>
     <t>Identifier:event ID</t>
   </si>
   <si>
@@ -2032,12 +2033,6 @@
     <t>Person:Painter</t>
   </si>
   <si>
-    <t>Brief description</t>
-  </si>
-  <si>
-    <t>CLR image file name</t>
-  </si>
-  <si>
     <t>Subject:culturalContext</t>
   </si>
   <si>
@@ -2062,14 +2057,501 @@
     <t>Note:related publications</t>
   </si>
   <si>
-    <t>Identifier:identifier</t>
+    <t>1958 - present</t>
+  </si>
+  <si>
+    <t>19.5, -155.6</t>
+  </si>
+  <si>
+    <t>Mauna Loa | Hawaii</t>
+  </si>
+  <si>
+    <t>Keeling Curve | Atmosphere | Carbon dioxide</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>-90.0</t>
+  </si>
+  <si>
+    <t>1957 - present</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>006</t>
+  </si>
+  <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>008</t>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>012</t>
+  </si>
+  <si>
+    <t>013</t>
+  </si>
+  <si>
+    <t>Alert | Northwest Territory | Canada</t>
+  </si>
+  <si>
+    <t>Point Barrow | Alaska</t>
+  </si>
+  <si>
+    <t>La Jolla | California</t>
+  </si>
+  <si>
+    <t>Baja California Sur | Mexico</t>
+  </si>
+  <si>
+    <t>Cape Kumukahi | Hawaii</t>
+  </si>
+  <si>
+    <t>Samoa</t>
+  </si>
+  <si>
+    <t>Baring Head | New Zealand</t>
+  </si>
+  <si>
+    <t>Palmer Station | Antarctica</t>
+  </si>
+  <si>
+    <t>South Pole | Antarctica</t>
+  </si>
+  <si>
+    <t>82.3, -62.3</t>
+  </si>
+  <si>
+    <t>71.3, -156.6</t>
+  </si>
+  <si>
+    <t>50.0, -145.0</t>
+  </si>
+  <si>
+    <t>32.9, -117.3</t>
+  </si>
+  <si>
+    <t>23.3, -110.2</t>
+  </si>
+  <si>
+    <t>19.5, -154.8</t>
+  </si>
+  <si>
+    <t>2.0, -157.3</t>
+  </si>
+  <si>
+    <t>-29.2, -177.9</t>
+  </si>
+  <si>
+    <t>-14.2, -170.6</t>
+  </si>
+  <si>
+    <t>-64.9, -64.0</t>
+  </si>
+  <si>
+    <t>-41.4, 174.9</t>
+  </si>
+  <si>
+    <t>Christmas Island | Fanning Island</t>
+  </si>
+  <si>
+    <t>Kermadec Island | Raoul Island</t>
+  </si>
+  <si>
+    <t>1985 - present</t>
+  </si>
+  <si>
+    <t>1961 - present</t>
+  </si>
+  <si>
+    <t>1969 - 1981</t>
+  </si>
+  <si>
+    <t>1997 - 2009</t>
+  </si>
+  <si>
+    <t>1979 - present</t>
+  </si>
+  <si>
+    <t>1974 - present</t>
+  </si>
+  <si>
+    <t>1981 - present</t>
+  </si>
+  <si>
+    <t>1977 - present</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>1958-01-01</t>
+  </si>
+  <si>
+    <t>1985-01-01</t>
+  </si>
+  <si>
+    <t>1961-01-01</t>
+  </si>
+  <si>
+    <t>1969-01-01</t>
+  </si>
+  <si>
+    <t>1957-01-01</t>
+  </si>
+  <si>
+    <t>1997-01-01</t>
+  </si>
+  <si>
+    <t>1979-01-01</t>
+  </si>
+  <si>
+    <t>1974-01-01</t>
+  </si>
+  <si>
+    <t>1981-01-01</t>
+  </si>
+  <si>
+    <t>1982-01-01</t>
+  </si>
+  <si>
+    <t>1977-01-01</t>
+  </si>
+  <si>
+    <t>2005-03-10</t>
+  </si>
+  <si>
+    <t>2007-09-11</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2009-12-31</t>
+  </si>
+  <si>
+    <t>1981-12-31</t>
+  </si>
+  <si>
+    <t>Atmospheric CO2 Data - Alert, NWT, Canada</t>
+  </si>
+  <si>
+    <t>Atmospheric CO2 Data - Point Barrow, Alaska</t>
+  </si>
+  <si>
+    <t>Atmospheric CO2 Data - Station P</t>
+  </si>
+  <si>
+    <t>Atmospheric CO2 Data - La Jolla Pier, California</t>
+  </si>
+  <si>
+    <t>Atmospheric CO2 Data - Baja California Sur, Mexico</t>
+  </si>
+  <si>
+    <t>Atmospheric CO2 Data - Mauna Loa Observatory, Hawaii</t>
+  </si>
+  <si>
+    <t>Atmospheric CO2 Data - Cape Kumukahi, Hawaii</t>
+  </si>
+  <si>
+    <t>Atmospheric CO2 Data - American Samoa</t>
+  </si>
+  <si>
+    <t>Atmospheric CO2 Data - Baring Head, New Zealand</t>
+  </si>
+  <si>
+    <t>Atmospheric CO2 Data - Palmer Station, Antarctica</t>
+  </si>
+  <si>
+    <t>Atmospheric CO2 Data - South Pole</t>
+  </si>
+  <si>
+    <t>alt_station_data_set.zip</t>
+  </si>
+  <si>
+    <t>bcs_station_data_set.zip</t>
+  </si>
+  <si>
+    <t>chr_station_data_set.zip</t>
+  </si>
+  <si>
+    <t>ker_station_data_set.zip</t>
+  </si>
+  <si>
+    <t>kum_station_data_set.zip</t>
+  </si>
+  <si>
+    <t>ljo_station_data_set.zip</t>
+  </si>
+  <si>
+    <t>mlo_station_data_set.zip</t>
+  </si>
+  <si>
+    <t>nzd_station_data_set.zip</t>
+  </si>
+  <si>
+    <t>psa_station_data_set.zip</t>
+  </si>
+  <si>
+    <t>ptb_station_data_set.zip</t>
+  </si>
+  <si>
+    <t>sam_station_data_set.zip</t>
+  </si>
+  <si>
+    <t>spo_station_data_set.zip</t>
+  </si>
+  <si>
+    <t>stp_station_data_set.zip</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>1982 - present</t>
+  </si>
+  <si>
+    <t>2005 - 2007</t>
+  </si>
+  <si>
+    <t>Flask CO2 and isotopic data sets taken at Alert, NWT, Canada: Latitude 82.3°N Longitude 62.3°W Elevation 210m.
+These data are subject to revision based on recalibration of standard gases.</t>
+  </si>
+  <si>
+    <t>In-situ CO2, flask CO2, and isotopic data sets taken at Point Barrow, Alsaska: Latitude 71.3°N Longitude 156.6°W Elevation 11m. In-situ CO2 data derived from continuous analyzer near Point Barrow, Alaska by John Kelley in collaboration with C.D. Keeling.
+These data are subject to revision based on recalibration of standard gases.</t>
+  </si>
+  <si>
+    <t>In-situ CO2, flask CO2, and isotopic data sets taken at La Jolla Pier: Latitude 32.9°N Longitude 117.3°W Elevation 10m.
+These data are subject to revision based on recalibration of standard gases.</t>
+  </si>
+  <si>
+    <t>In-situ CO2, flask CO2, and isotopic data sets taken at Mauna Loa, Observatory, Hawaii: Latitude 19.5°N Longitude 155.6°W Elevation 3397m.
+These data are subject to revision based on recalibration of standard gases.</t>
+  </si>
+  <si>
+    <t>Flask CO2 and isotopic data sets taken at Cape Kumukahi, Hawaii: Latitude 19.5°N Longitude 154.8°W Elevation 3m.
+These data are subject to revision based on recalibration of standard gases.</t>
+  </si>
+  <si>
+    <t>Flask CO2 and isotopic data sets taken at Christmas Island, Fanning Island: Latitude 2.0°N Longitude 157.3°W Elevation 2m.
+These data are subject to revision based on recalibration of standard gases.</t>
+  </si>
+  <si>
+    <t>Atmospheric CO2 Data - Christmas Island, Fanning Island</t>
+  </si>
+  <si>
+    <t>Flask CO2 and isotopic data sets taken at American Samoa: Latitude 14.2°S Longitude 170.6°W Elevation 30m.
+These data are subject to revision based on recalibration of standard gases.</t>
+  </si>
+  <si>
+    <t>Atmospheric CO2 Data - Kermadec Islands, Raoul Island</t>
+  </si>
+  <si>
+    <t>Flask CO2 and isotopic data sets taken at Kermadec Islands, Raoul Island: Latitude 29.2°S Longitude 177.9°W Elevation 2m.
+These data are subject to revision based on recalibration of standard gases.</t>
+  </si>
+  <si>
+    <t>In-situ CO2, flask CO2, and isotopic data sets taken at the South Pole: Latitude 90.0°S Elevation 2810m.
+These data are subject to revision based on recalibration of standard gases.</t>
+  </si>
+  <si>
+    <t>Flask CO2 and isotopic data sets taken at Baring Head, New Zealand: Latitude 41.4°S Longitude 174.9°E Elevation 85m.
+These data are subject to revision based on recalibration of standard gases.</t>
+  </si>
+  <si>
+    <t>This station is no longer active, hence no new data are being added to the data sets here.</t>
+  </si>
+  <si>
+    <t>This station is active and generates ongoing data sets, which will be updated monthly here.</t>
+  </si>
+  <si>
+    <t>For more information, visit Scripps CO2 Program website: Atmospheric CO2 data for Alert, NWT, Canada @ http://scrippsco2.ucsd.edu/data/atmospheric_co2/alt</t>
+  </si>
+  <si>
+    <t>For more information, visit Scripps CO2 Program website: Atmospheric CO2 data for Point Barrow, Alaska @ http://scrippsco2.ucsd.edu/data/atmospheric_co2/ptb</t>
+  </si>
+  <si>
+    <t>For more information, visit Scripps CO2 Program website: Atmospheric CO2 data for La Jolla Pier, California @ http://scrippsco2.ucsd.edu/data/atmospheric_co2/ljo</t>
+  </si>
+  <si>
+    <t>For more information, visit Scripps CO2 Program website: Atmospheric CO2 data for Mauna Loa Observatory, Hawaii @ http://scrippsco2.ucsd.edu/data/atmospheric_co2/mlo</t>
+  </si>
+  <si>
+    <t>For more information, visit Scripps CO2 Program website: Atmospheric CO2 data for Cape Kumukahi, Hawaii @ http://scrippsco2.ucsd.edu/data/atmospheric_co2/kum</t>
+  </si>
+  <si>
+    <t>For more information, visit Scripps CO2 Program website: Atmospheric CO2 data for Christmas Island, Fanning Island @ http://scrippsco2.ucsd.edu/data/atmospheric_co2/chr</t>
+  </si>
+  <si>
+    <t>For more information, visit Scripps CO2 Program website: Atmospheric CO2 data for American Samoa @ http://scrippsco2.ucsd.edu/data/atmospheric_co2/sam</t>
+  </si>
+  <si>
+    <t>For more information, visit Scripps CO2 Program website: Atmospheric CO2 data for Kermadec Islands, Raoul Island @ http://scrippsco2.ucsd.edu/data/atmospheric_co2/ker</t>
+  </si>
+  <si>
+    <t>For more information, visit Scripps CO2 Program website: Atmospheric CO2 data for Baring Head, New Zealand @ http://scrippsco2.ucsd.edu/data/atmospheric_co2/nzd</t>
+  </si>
+  <si>
+    <t>For more information, visit Scripps CO2 Program website: Atmospheric CO2 data for South Pole @ http://scrippsco2.ucsd.edu/data/atmospheric_co2/spo</t>
+  </si>
+  <si>
+    <t>For more information, visit Scripps CO2 Program website: Atmospheric CO2 data for Station P @ http://scrippsco2.ucsd.edu/data/atmospheric_co2/stp</t>
+  </si>
+  <si>
+    <t>For more information, visit Scripps CO2 Program website: Atmospheric CO2 data for Baja California Sur, Mexico @ http://scrippsco2.ucsd.edu/data/atmospheric_co2/bcs</t>
+  </si>
+  <si>
+    <t>For more information, visit Scripps CO2 Program website: Atmospheric CO2 data for Palmer Station, Antarctica @ http://scrippsco2.ucsd.edu/data/atmospheric_co2/psa</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Flask CO2 data sets taken at Station P: Latitude 50.0°N Longitude 145.0°W Elevation 0m.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>These data are subject to revision based on recalibration of standard gases.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Flask CO2 and isotopic data sets taken at Baja California Sur, Mexico: Latitude 23.3°N Longitude 110.2°W Elevation 4m.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>These data are subject to revision based on recalibration of standard gases.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Flask isotopic data sets taken at Palmer Station, Antarctica: Latitude 64.9°S Longitude 64.0°W Elevation 10m.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>These data are subject to revision based on recalibration of standard gases.</t>
+    </r>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>014</t>
+  </si>
+  <si>
+    <t>select_co2_and_o2_stations_large.tif</t>
+  </si>
+  <si>
+    <t>Measurements of atmospheric CO2 concentration in our program began in 1957 at La Jolla, California and at the South Pole, and in 1958 at Mauna Loa Observatory. These measurements were gradually extended during the 1960's and 1970's to comprise sampling at an array of stations from the Arctic to Antarctica.</t>
+  </si>
+  <si>
+    <t>Map of Scripps CO2 Program Sampling Stations</t>
+  </si>
+  <si>
+    <t>Sampling Stations at Scripps CO2 Program website @ http://scrippsco2.ucsd.edu/data/atmospheric_co2/sampling_stations</t>
+  </si>
+  <si>
+    <t>The data sets were calibrated using an "08A" scale.</t>
+  </si>
+  <si>
+    <t>Keeling, Ralph F; Keeling, Charles D (2017): Atmospheric CO2 Data - Alert, NWT, Canada. In Scripps CO2 Program Data. UC San Diego Library Digital Collections.</t>
+  </si>
+  <si>
+    <t>Keeling, Ralph F; Keeling, Charles D (2017): Atmospheric CO2 Data - Point Barrow, Alaska. In Scripps CO2 Program Data. UC San Diego Library Digital Collections.</t>
+  </si>
+  <si>
+    <t>Keeling, Ralph F; Keeling, Charles D (2017): Atmospheric CO2 Data - La Jolla Pier, California. In Scripps CO2 Program Data. UC San Diego Library Digital Collections.</t>
+  </si>
+  <si>
+    <t>Keeling, Ralph F; Keeling, Charles D (2017): Atmospheric CO2 Data - Mauna Loa Observatory, Hawaii. In Scripps CO2 Program Data. UC San Diego Library Digital Collections.</t>
+  </si>
+  <si>
+    <t>Keeling, Ralph F; Keeling, Charles D (2017): Atmospheric CO2 Data - Cape Kumukahi, Hawaii. In Scripps CO2 Program Data. UC San Diego Library Digital Collections.</t>
+  </si>
+  <si>
+    <t>Keeling, Ralph F; Keeling, Charles D (2017): Atmospheric CO2 Data - Christmas Island, Fanning Island. In Scripps CO2 Program Data. UC San Diego Library Digital Collections.</t>
+  </si>
+  <si>
+    <t>Keeling, Ralph F; Keeling, Charles D (2017): Atmospheric CO2 Data - American Samoa. In Scripps CO2 Program Data. UC San Diego Library Digital Collections.</t>
+  </si>
+  <si>
+    <t>Keeling, Ralph F; Keeling, Charles D (2017): Atmospheric CO2 Data - Kermadec Islands, Raoul Island. In Scripps CO2 Program Data. UC San Diego Library Digital Collections.</t>
+  </si>
+  <si>
+    <t>Keeling, Ralph F; Keeling, Charles D (2017): Atmospheric CO2 Data - Baring Head, New Zealand. In Scripps CO2 Program Data. UC San Diego Library Digital Collections.</t>
+  </si>
+  <si>
+    <t>Keeling, Ralph F; Keeling, Charles D (2017): Atmospheric CO2 Data - South Pole. In Scripps CO2 Program Data. UC San Diego Library Digital Collections.</t>
+  </si>
+  <si>
+    <t>Keeling, Ralph F; Keeling, Charles D (2017): Atmospheric CO2 Data - Station P. In Scripps CO2 Program Data. UC San Diego Library Digital Collections.</t>
+  </si>
+  <si>
+    <t>Keeling, Ralph F; Keeling, Charles D (2017): Atmospheric CO2 Data - Baja California Sur, Mexico. In Scripps CO2 Program Data. UC San Diego Library Digital Collections.</t>
+  </si>
+  <si>
+    <t>Keeling, Ralph F; Keeling, Charles D (2017): Atmospheric CO2 Data - Palmer Station, Antarctica. In Scripps CO2 Program Data. UC San Diego Library Digital Collections.</t>
+  </si>
+  <si>
+    <t>Weather Station Papa | North Pacific</t>
+  </si>
+  <si>
+    <t>Keeling, Ralph F.</t>
+  </si>
+  <si>
+    <t>Keeling, Ralph F. | Keeling, Charles D.</t>
+  </si>
+  <si>
+    <t>Keeling, Charles D.</t>
+  </si>
+  <si>
+    <t>Scripps CO2 Program | Scripps Institution of Oceanography</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2299,8 +2781,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="38">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2503,12 +2998,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -2694,7 +3183,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2732,14 +3221,23 @@
     <xf numFmtId="49" fontId="16" fillId="36" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="37" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="36" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="51">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2851,6 +3349,23 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Item description"/>
+      <sheetName val="Select-a-header values"/>
+      <sheetName val="CV values"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3140,36 +3655,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U1"/>
+  <dimension ref="A1:W15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" style="3" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="34.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="45.28515625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="23.85546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22" style="3" customWidth="1"/>
-    <col min="10" max="10" width="51.5703125" style="3" customWidth="1"/>
-    <col min="11" max="12" width="45.140625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="45.5703125" style="3" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="3" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="3" customWidth="1"/>
-    <col min="16" max="16" width="19.85546875" style="3" customWidth="1"/>
-    <col min="17" max="18" width="39.140625" style="3" customWidth="1"/>
-    <col min="19" max="19" width="42.85546875" style="3" customWidth="1"/>
-    <col min="20" max="20" width="44.5703125" style="3" customWidth="1"/>
-    <col min="21" max="21" width="84.28515625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="27.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5703125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="14" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="64.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="31.7109375" style="23" customWidth="1"/>
+    <col min="18" max="18" width="18.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="63" style="3" customWidth="1"/>
+    <col min="20" max="20" width="42.85546875" style="3" customWidth="1"/>
+    <col min="21" max="21" width="18.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="70.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>338</v>
       </c>
@@ -3182,32 +3701,32 @@
       <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
-        <v>501</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>502</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>624</v>
-      </c>
-      <c r="H1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="15" t="s">
-        <v>517</v>
+      <c r="G1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>131</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>518</v>
+        <v>105</v>
       </c>
       <c r="L1" s="16" t="s">
-        <v>519</v>
+        <v>450</v>
       </c>
       <c r="M1" s="16" t="s">
-        <v>520</v>
+        <v>489</v>
       </c>
       <c r="N1" s="16" t="s">
         <v>6</v>
@@ -3215,130 +3734,1073 @@
       <c r="O1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="17" t="s">
-        <v>623</v>
-      </c>
-      <c r="Q1" s="16" t="s">
-        <v>521</v>
-      </c>
-      <c r="R1" s="16" t="s">
-        <v>522</v>
+      <c r="P1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="R1" s="25" t="s">
+        <v>506</v>
       </c>
       <c r="S1" s="16" t="s">
-        <v>523</v>
+        <v>352</v>
       </c>
       <c r="T1" s="16" t="s">
-        <v>524</v>
+        <v>460</v>
       </c>
       <c r="U1" s="16" t="s">
-        <v>525</v>
+        <v>455</v>
+      </c>
+      <c r="V1" s="16" t="s">
+        <v>446</v>
+      </c>
+      <c r="W1" s="16" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>694</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>773</v>
+      </c>
+      <c r="J2" s="23" t="s">
+        <v>774</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="L2" s="23" t="s">
+        <v>718</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="P2" s="22" t="s">
+        <v>721</v>
+      </c>
+      <c r="Q2" s="24" t="s">
+        <v>734</v>
+      </c>
+      <c r="R2" s="24" t="s">
+        <v>757</v>
+      </c>
+      <c r="S2" s="23" t="s">
+        <v>758</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="W2" s="23" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="105" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>695</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>773</v>
+      </c>
+      <c r="J3" s="23" t="s">
+        <v>774</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="L3" s="23" t="s">
+        <v>718</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="Q3" s="24" t="s">
+        <v>734</v>
+      </c>
+      <c r="R3" s="24" t="s">
+        <v>757</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>697</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="I4" s="23" t="s">
+        <v>773</v>
+      </c>
+      <c r="J4" s="23" t="s">
+        <v>774</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="L4" s="23" t="s">
+        <v>718</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="Q4" s="24" t="s">
+        <v>734</v>
+      </c>
+      <c r="R4" s="24" t="s">
+        <v>757</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>699</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>773</v>
+      </c>
+      <c r="J5" s="23" t="s">
+        <v>774</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="L5" s="23" t="s">
+        <v>718</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="Q5" s="24" t="s">
+        <v>734</v>
+      </c>
+      <c r="R5" s="24" t="s">
+        <v>757</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>700</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="I6" s="23" t="s">
+        <v>773</v>
+      </c>
+      <c r="J6" s="23" t="s">
+        <v>774</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="L6" s="23" t="s">
+        <v>718</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="P6" s="22" t="s">
+        <v>725</v>
+      </c>
+      <c r="Q6" s="24" t="s">
+        <v>734</v>
+      </c>
+      <c r="R6" s="24" t="s">
+        <v>757</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>727</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="I7" s="23" t="s">
+        <v>773</v>
+      </c>
+      <c r="J7" s="23" t="s">
+        <v>774</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="L7" s="23" t="s">
+        <v>718</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="Q7" s="24" t="s">
+        <v>734</v>
+      </c>
+      <c r="R7" s="24" t="s">
+        <v>757</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>701</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>773</v>
+      </c>
+      <c r="J8" s="23" t="s">
+        <v>774</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="L8" s="23" t="s">
+        <v>718</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="P8" s="22" t="s">
+        <v>728</v>
+      </c>
+      <c r="Q8" s="24" t="s">
+        <v>734</v>
+      </c>
+      <c r="R8" s="24" t="s">
+        <v>757</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>729</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>773</v>
+      </c>
+      <c r="J9" s="23" t="s">
+        <v>774</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="L9" s="23" t="s">
+        <v>718</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="Q9" s="24" t="s">
+        <v>734</v>
+      </c>
+      <c r="R9" s="24" t="s">
+        <v>757</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>702</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="I10" s="23" t="s">
+        <v>773</v>
+      </c>
+      <c r="J10" s="23" t="s">
+        <v>774</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="L10" s="23" t="s">
+        <v>718</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="P10" s="22" t="s">
+        <v>732</v>
+      </c>
+      <c r="Q10" s="24" t="s">
+        <v>734</v>
+      </c>
+      <c r="R10" s="24" t="s">
+        <v>757</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>704</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="I11" s="23" t="s">
+        <v>773</v>
+      </c>
+      <c r="J11" s="23" t="s">
+        <v>774</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="L11" s="23" t="s">
+        <v>718</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="P11" s="22" t="s">
+        <v>731</v>
+      </c>
+      <c r="Q11" s="24" t="s">
+        <v>734</v>
+      </c>
+      <c r="R11" s="24" t="s">
+        <v>757</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>767</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="W11" s="3" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>696</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="I12" s="23" t="s">
+        <v>773</v>
+      </c>
+      <c r="J12" s="23" t="s">
+        <v>774</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="L12" s="23" t="s">
+        <v>718</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="P12" s="22" t="s">
+        <v>748</v>
+      </c>
+      <c r="Q12" s="24" t="s">
+        <v>733</v>
+      </c>
+      <c r="R12" s="24" t="s">
+        <v>757</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="U12" s="23" t="s">
+        <v>771</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>698</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="I13" s="23" t="s">
+        <v>773</v>
+      </c>
+      <c r="J13" s="23" t="s">
+        <v>774</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="L13" s="23" t="s">
+        <v>718</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="P13" s="22" t="s">
+        <v>749</v>
+      </c>
+      <c r="Q13" s="24" t="s">
+        <v>733</v>
+      </c>
+      <c r="R13" s="24" t="s">
+        <v>757</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>769</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="V13" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="W13" s="3" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>703</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="I14" s="23" t="s">
+        <v>773</v>
+      </c>
+      <c r="J14" s="23" t="s">
+        <v>774</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="L14" s="23" t="s">
+        <v>718</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="Q14" s="24" t="s">
+        <v>733</v>
+      </c>
+      <c r="R14" s="24" t="s">
+        <v>757</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="I15" s="23" t="s">
+        <v>773</v>
+      </c>
+      <c r="J15" s="23" t="s">
+        <v>774</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="L15" s="23"/>
+      <c r="P15" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>756</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="    \Sub-component">
+    <cfRule type="containsText" dxfId="4" priority="51" operator="containsText" text="    \Sub-component">
       <formula>NOT(ISERROR(SEARCH("    \Sub-component",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="    \Sub-component">
+    <cfRule type="containsText" dxfId="3" priority="52" operator="containsText" text="    \Sub-component">
       <formula>NOT(ISERROR(SEARCH("    \Sub-component",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="  \Component">
+    <cfRule type="containsText" dxfId="2" priority="53" operator="containsText" text="  \Component">
       <formula>NOT(ISERROR(SEARCH("  \Component",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="Object">
+    <cfRule type="containsText" dxfId="1" priority="54" operator="containsText" text="Object">
       <formula>NOT(ISERROR(SEARCH("Object",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="5" operator="containsText" text="    \Sub-component">
+    <cfRule type="containsText" dxfId="0" priority="55" operator="containsText" text="    \Sub-component">
       <formula>NOT(ISERROR(SEARCH("    \Sub-component",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid entry" error="Please choose a value from the dropdown list" prompt="Please choose a value from the dropdown list" sqref="B1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid value" error="Please select a value from the drop-down list" prompt="Please select a header from the drop-down list" sqref="I1"/>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="13">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="10">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid header" error="Please select a header from the drop-down list" prompt="Please select a header from the drop-down list">
+          <x14:formula1>
+            <xm:f>'Select-a-header values'!$A$1:$A$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>G1</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid header" error="Please select a header from the drop-down list" prompt="Please select a header from the drop-down list">
+          <x14:formula1>
+            <xm:f>'Select-a-header values'!$D$1:$D$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>L1:M1</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid header" error="Please select a header from the drop-down list" prompt="Please select a header from the drop-down list">
+          <x14:formula1>
+            <xm:f>'Select-a-header values'!$G$1:$G$17</xm:f>
+          </x14:formula1>
+          <xm:sqref>T1:U1</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid header" error="Please select a header from the drop-down list" prompt="Please select a header from the drop-down list">
+          <x14:formula1>
+            <xm:f>'Select-a-header values'!$H$1:$H$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>V1</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid header" error="Please select a header from the drop-down list" prompt="Please select a header from the drop-down list">
+          <x14:formula1>
+            <xm:f>'Select-a-header values'!$I$1:$I$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>W1</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid entry" error="Please choose a value from the dropdown list" prompt="Please choose a value from the dropdown list">
           <x14:formula1>
             <xm:f>'CV values'!$B$2:$B$21</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D1048576 F2:F1048576</xm:sqref>
+          <xm:sqref>D2:D1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid entry" error="Please choose a value from the dropdown list" prompt="Please choose a value from the dropdown list">
           <x14:formula1>
             <xm:f>'CV values'!$C$2:$C$15</xm:f>
           </x14:formula1>
-          <xm:sqref>H2:H1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid entry" error="Please choose a value from the dropdown list" prompt="Please choose a value from the dropdown list">
-          <x14:formula1>
-            <xm:f>'CV values'!$A$2:$A$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>B2:B1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid header" error="Please select a header from the drop-down list" prompt="Please select a header from the drop-down list">
-          <x14:formula1>
-            <xm:f>'Select-a-header values'!$A$1:$A$7</xm:f>
-          </x14:formula1>
-          <xm:sqref>J1</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid value" error="Please select a value from the drop-down list" prompt="Please select a header from the drop-down list">
-          <x14:formula1>
-            <xm:f>'CV values'!$D$2:$D$60</xm:f>
-          </x14:formula1>
-          <xm:sqref>I2:I1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid header" error="Please select a header from the drop-down list" prompt="Please select a header from the drop-down list">
-          <x14:formula1>
-            <xm:f>'Select-a-header values'!$C$1:$C$185</xm:f>
-          </x14:formula1>
-          <xm:sqref>L1</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid header" error="Please select a header from the drop-down list" prompt="Please select a header from the drop-down list">
-          <x14:formula1>
-            <xm:f>'Select-a-header values'!$D$1:$D$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>M1</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid header" error="Please select a header from the drop-down list" prompt="Please select a header from the drop-down list">
-          <x14:formula1>
-            <xm:f>'Select-a-header values'!$G$1:$G$17</xm:f>
-          </x14:formula1>
-          <xm:sqref>S1</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid header" error="Please select a header from the drop-down list" prompt="Please select a header from the drop-down list">
-          <x14:formula1>
-            <xm:f>'Select-a-header values'!$H$1:$H$7</xm:f>
-          </x14:formula1>
-          <xm:sqref>T1</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid header" error="Please select a header from the drop-down list" prompt="Please select a header from the drop-down list">
-          <x14:formula1>
-            <xm:f>'Select-a-header values'!$I$1:$I$12</xm:f>
-          </x14:formula1>
-          <xm:sqref>U1</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid header" error="Please select a header from the drop-down list" prompt="Please select a header from the drop-down list">
-          <x14:formula1>
-            <xm:f>'Select-a-header values'!$B$1:$B$233</xm:f>
-          </x14:formula1>
-          <xm:sqref>K1</xm:sqref>
+          <xm:sqref>E2:E1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid header" error="Please select a header from the drop-down list" prompt="Please select a header from the drop-down list">
           <x14:formula1>
             <xm:f>'Select-a-header values'!$E$1:$E$34</xm:f>
           </x14:formula1>
-          <xm:sqref>Q1</xm:sqref>
+          <xm:sqref>P1:S1</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid header" error="Please select a header from the drop-down list" prompt="Please select a header from the drop-down list">
           <x14:formula1>
-            <xm:f>'Select-a-header values'!$F$1:$F$21</xm:f>
+            <xm:f>'[1]Select-a-header values'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>R1</xm:sqref>
+          <xm:sqref>H1:J1</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid header" error="Please select a header from the drop-down list" prompt="Please select a header from the drop-down list">
+          <x14:formula1>
+            <xm:f>'[1]Select-a-header values'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>K1</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3351,7 +4813,7 @@
   <dimension ref="A1:R333"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="38.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3366,31 +4828,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
+        <v>515</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>516</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>517</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="D1" s="14" t="s">
         <v>518</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>519</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="F1" s="14" t="s">
         <v>520</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>521</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>522</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="I1" s="14" t="s">
         <v>523</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>524</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -3401,7 +4863,7 @@
         <v>19</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>489</v>
@@ -3412,14 +4874,14 @@
       <c r="F2" s="11" t="s">
         <v>491</v>
       </c>
-      <c r="G2" s="22" t="s">
-        <v>510</v>
+      <c r="G2" s="21" t="s">
+        <v>508</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>444</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -3430,7 +4892,7 @@
         <v>21</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>488</v>
@@ -3442,7 +4904,7 @@
         <v>11</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>446</v>
@@ -3459,7 +4921,7 @@
         <v>23</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>487</v>
@@ -3488,7 +4950,7 @@
         <v>269</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>450</v>
@@ -3517,7 +4979,7 @@
         <v>25</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>490</v>
@@ -3528,8 +4990,8 @@
       <c r="F6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="18" t="s">
-        <v>628</v>
+      <c r="G6" s="17" t="s">
+        <v>624</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>456</v>
@@ -3546,7 +5008,7 @@
         <v>26</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>348</v>
@@ -3554,14 +5016,14 @@
       <c r="F7" s="11" t="s">
         <v>454</v>
       </c>
-      <c r="G7" s="21" t="s">
-        <v>625</v>
+      <c r="G7" s="20" t="s">
+        <v>621</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>458</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -3569,7 +5031,7 @@
         <v>27</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>4</v>
@@ -3590,13 +5052,13 @@
         <v>30</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>535</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>630</v>
+        <v>533</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>626</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G9" s="12" t="s">
         <v>451</v>
@@ -3611,7 +5073,7 @@
         <v>32</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>350</v>
@@ -3632,16 +5094,16 @@
         <v>34</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>537</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>631</v>
+        <v>535</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>627</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>633</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>626</v>
+        <v>494</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>622</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="11" t="s">
@@ -3659,14 +5121,14 @@
         <v>461</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>494</v>
+        <v>15</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>335</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="11" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -3674,13 +5136,13 @@
         <v>22</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>339</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>15</v>
+        <v>495</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>459</v>
@@ -3693,16 +5155,16 @@
         <v>35</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>462</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>495</v>
+        <v>5</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -3710,16 +5172,16 @@
         <v>33</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="21" t="s">
-        <v>627</v>
+        <v>16</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>623</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -3727,13 +5189,13 @@
         <v>36</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>16</v>
+        <v>496</v>
       </c>
       <c r="G16" s="11" t="s">
         <v>334</v>
@@ -3744,13 +5206,13 @@
         <v>37</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>496</v>
+        <v>17</v>
       </c>
       <c r="G17" s="12" t="s">
         <v>460</v>
@@ -3767,7 +5229,7 @@
         <v>463</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>17</v>
+        <v>514</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
@@ -3781,7 +5243,7 @@
         <v>464</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>516</v>
+        <v>502</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
@@ -3792,10 +5254,10 @@
         <v>47</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>504</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
@@ -3803,13 +5265,10 @@
         <v>31</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>484</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
@@ -3863,8 +5322,8 @@
       <c r="C26" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="E26" s="18" t="s">
-        <v>632</v>
+      <c r="E26" s="17" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
@@ -3883,7 +5342,7 @@
         <v>46</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E28" s="11" t="s">
         <v>465</v>
@@ -3894,10 +5353,10 @@
         <v>54</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>545</v>
-      </c>
-      <c r="E29" s="18" t="s">
-        <v>629</v>
+        <v>543</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
@@ -3930,7 +5389,7 @@
         <v>84</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
@@ -3949,7 +5408,7 @@
         <v>61</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E34" s="11" t="s">
         <v>466</v>
@@ -3960,7 +5419,7 @@
         <v>60</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
@@ -3968,9 +5427,9 @@
         <v>68</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>548</v>
-      </c>
-      <c r="E36" s="20"/>
+        <v>546</v>
+      </c>
+      <c r="E36" s="19"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" s="14" t="s">
@@ -3979,16 +5438,16 @@
       <c r="C37" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="E37" s="18"/>
+      <c r="E37" s="17"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" s="14" t="s">
         <v>63</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>549</v>
-      </c>
-      <c r="E38" s="19"/>
+        <v>547</v>
+      </c>
+      <c r="E38" s="18"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" s="14" t="s">
@@ -4011,7 +5470,7 @@
         <v>75</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
@@ -4019,7 +5478,7 @@
         <v>66</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
@@ -4027,7 +5486,7 @@
         <v>83</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
@@ -4035,7 +5494,7 @@
         <v>79</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
@@ -4043,7 +5502,7 @@
         <v>70</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
@@ -4051,7 +5510,7 @@
         <v>69</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
@@ -4115,7 +5574,7 @@
         <v>82</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
@@ -4131,7 +5590,7 @@
         <v>102</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
@@ -4163,7 +5622,7 @@
         <v>90</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
@@ -4219,7 +5678,7 @@
         <v>89</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
@@ -4227,7 +5686,7 @@
         <v>96</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
@@ -4235,7 +5694,7 @@
         <v>109</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
@@ -4243,7 +5702,7 @@
         <v>117</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
@@ -4251,7 +5710,7 @@
         <v>129</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
@@ -4267,7 +5726,7 @@
         <v>131</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
@@ -4275,7 +5734,7 @@
         <v>133</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
@@ -4283,7 +5742,7 @@
         <v>114</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
@@ -4299,7 +5758,7 @@
         <v>120</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
@@ -4307,7 +5766,7 @@
         <v>121</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
@@ -4331,7 +5790,7 @@
         <v>115</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
@@ -4363,7 +5822,7 @@
         <v>134</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.25">
@@ -4411,7 +5870,7 @@
         <v>142</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.25">
@@ -4443,7 +5902,7 @@
         <v>146</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.25">
@@ -4451,7 +5910,7 @@
         <v>147</v>
       </c>
       <c r="C96" s="14" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.25">
@@ -4467,7 +5926,7 @@
         <v>150</v>
       </c>
       <c r="C98" s="14" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.25">
@@ -4491,7 +5950,7 @@
         <v>151</v>
       </c>
       <c r="C101" s="14" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.25">
@@ -4499,7 +5958,7 @@
         <v>156</v>
       </c>
       <c r="C102" s="14" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.25">
@@ -4507,7 +5966,7 @@
         <v>153</v>
       </c>
       <c r="C103" s="14" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.25">
@@ -4531,7 +5990,7 @@
         <v>154</v>
       </c>
       <c r="C106" s="14" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.25">
@@ -4555,7 +6014,7 @@
         <v>165</v>
       </c>
       <c r="C109" s="14" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.25">
@@ -4571,7 +6030,7 @@
         <v>170</v>
       </c>
       <c r="C111" s="14" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.25">
@@ -4579,7 +6038,7 @@
         <v>168</v>
       </c>
       <c r="C112" s="14" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.25">
@@ -4627,7 +6086,7 @@
         <v>180</v>
       </c>
       <c r="C118" s="14" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="119" spans="2:3" x14ac:dyDescent="0.25">
@@ -4651,7 +6110,7 @@
         <v>188</v>
       </c>
       <c r="C121" s="14" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="122" spans="2:3" x14ac:dyDescent="0.25">
@@ -4659,7 +6118,7 @@
         <v>184</v>
       </c>
       <c r="C122" s="14" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="123" spans="2:3" x14ac:dyDescent="0.25">
@@ -4675,7 +6134,7 @@
         <v>182</v>
       </c>
       <c r="C124" s="14" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="125" spans="2:3" x14ac:dyDescent="0.25">
@@ -4731,7 +6190,7 @@
         <v>206</v>
       </c>
       <c r="C131" s="14" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="132" spans="2:3" x14ac:dyDescent="0.25">
@@ -4771,7 +6230,7 @@
         <v>210</v>
       </c>
       <c r="C136" s="14" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="137" spans="2:3" x14ac:dyDescent="0.25">
@@ -4779,7 +6238,7 @@
         <v>203</v>
       </c>
       <c r="C137" s="14" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="138" spans="2:3" x14ac:dyDescent="0.25">
@@ -4811,7 +6270,7 @@
         <v>211</v>
       </c>
       <c r="C141" s="14" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="142" spans="2:3" x14ac:dyDescent="0.25">
@@ -4819,7 +6278,7 @@
         <v>212</v>
       </c>
       <c r="C142" s="14" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="143" spans="2:3" x14ac:dyDescent="0.25">
@@ -4827,7 +6286,7 @@
         <v>219</v>
       </c>
       <c r="C143" s="14" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="144" spans="2:3" x14ac:dyDescent="0.25">
@@ -4835,7 +6294,7 @@
         <v>213</v>
       </c>
       <c r="C144" s="14" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="145" spans="2:3" x14ac:dyDescent="0.25">
@@ -4872,10 +6331,10 @@
     </row>
     <row r="149" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B149" s="14" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C149" s="14" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="150" spans="2:3" x14ac:dyDescent="0.25">
@@ -4883,7 +6342,7 @@
         <v>224</v>
       </c>
       <c r="C150" s="14" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="151" spans="2:3" x14ac:dyDescent="0.25">
@@ -4891,7 +6350,7 @@
         <v>239</v>
       </c>
       <c r="C151" s="14" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="152" spans="2:3" x14ac:dyDescent="0.25">
@@ -4899,7 +6358,7 @@
         <v>261</v>
       </c>
       <c r="C152" s="14" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="153" spans="2:3" x14ac:dyDescent="0.25">
@@ -4907,7 +6366,7 @@
         <v>263</v>
       </c>
       <c r="C153" s="14" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="154" spans="2:3" x14ac:dyDescent="0.25">
@@ -4915,7 +6374,7 @@
         <v>225</v>
       </c>
       <c r="C154" s="14" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="155" spans="2:3" x14ac:dyDescent="0.25">
@@ -4939,7 +6398,7 @@
         <v>232</v>
       </c>
       <c r="C157" s="14" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="158" spans="2:3" x14ac:dyDescent="0.25">
@@ -4955,7 +6414,7 @@
         <v>246</v>
       </c>
       <c r="C159" s="14" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="160" spans="2:3" x14ac:dyDescent="0.25">
@@ -4963,7 +6422,7 @@
         <v>471</v>
       </c>
       <c r="C160" s="14" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="161" spans="2:3" x14ac:dyDescent="0.25">
@@ -4971,7 +6430,7 @@
         <v>257</v>
       </c>
       <c r="C161" s="14" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="162" spans="2:3" x14ac:dyDescent="0.25">
@@ -4995,7 +6454,7 @@
         <v>243</v>
       </c>
       <c r="C164" s="14" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="165" spans="2:3" x14ac:dyDescent="0.25">
@@ -5011,7 +6470,7 @@
         <v>255</v>
       </c>
       <c r="C166" s="14" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="167" spans="2:3" x14ac:dyDescent="0.25">
@@ -5019,7 +6478,7 @@
         <v>235</v>
       </c>
       <c r="C167" s="14" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="168" spans="2:3" x14ac:dyDescent="0.25">
@@ -5027,7 +6486,7 @@
         <v>245</v>
       </c>
       <c r="C168" s="14" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="169" spans="2:3" x14ac:dyDescent="0.25">
@@ -5035,7 +6494,7 @@
         <v>253</v>
       </c>
       <c r="C169" s="14" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="170" spans="2:3" x14ac:dyDescent="0.25">
@@ -5043,7 +6502,7 @@
         <v>248</v>
       </c>
       <c r="C170" s="14" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="171" spans="2:3" x14ac:dyDescent="0.25">
@@ -5051,7 +6510,7 @@
         <v>229</v>
       </c>
       <c r="C171" s="14" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="172" spans="2:3" x14ac:dyDescent="0.25">
@@ -5059,7 +6518,7 @@
         <v>230</v>
       </c>
       <c r="C172" s="14" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="173" spans="2:3" x14ac:dyDescent="0.25">
@@ -5083,7 +6542,7 @@
         <v>226</v>
       </c>
       <c r="C175" s="14" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="176" spans="2:3" x14ac:dyDescent="0.25">
@@ -5091,7 +6550,7 @@
         <v>240</v>
       </c>
       <c r="C176" s="14" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="177" spans="2:3" x14ac:dyDescent="0.25">
@@ -5099,7 +6558,7 @@
         <v>270</v>
       </c>
       <c r="C177" s="14" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="178" spans="2:3" x14ac:dyDescent="0.25">
@@ -5107,7 +6566,7 @@
         <v>275</v>
       </c>
       <c r="C178" s="14" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="179" spans="2:3" x14ac:dyDescent="0.25">
@@ -5115,7 +6574,7 @@
         <v>268</v>
       </c>
       <c r="C179" s="14" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="180" spans="2:3" x14ac:dyDescent="0.25">
@@ -5123,7 +6582,7 @@
         <v>267</v>
       </c>
       <c r="C180" s="14" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="181" spans="2:3" x14ac:dyDescent="0.25">
@@ -5131,7 +6590,7 @@
         <v>271</v>
       </c>
       <c r="C181" s="14" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="182" spans="2:3" x14ac:dyDescent="0.25">
@@ -5139,7 +6598,7 @@
         <v>272</v>
       </c>
       <c r="C182" s="14" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="183" spans="2:3" x14ac:dyDescent="0.25">
@@ -5147,7 +6606,7 @@
         <v>277</v>
       </c>
       <c r="C183" s="14" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="184" spans="2:3" x14ac:dyDescent="0.25">
@@ -5155,7 +6614,7 @@
         <v>284</v>
       </c>
       <c r="C184" s="14" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="185" spans="2:3" x14ac:dyDescent="0.25">
@@ -5163,7 +6622,7 @@
         <v>285</v>
       </c>
       <c r="C185" s="14" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="186" spans="2:3" x14ac:dyDescent="0.25">
@@ -5818,7 +7277,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>340</v>
@@ -5835,7 +7294,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>364</v>

--- a/keeling/OLR/OLR_keeling.xlsx
+++ b/keeling/OLR/OLR_keeling.xlsx
@@ -93,7 +93,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -128,7 +128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="P1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -168,7 +168,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="780">
   <si>
     <t>text</t>
   </si>
@@ -2063,9 +2063,6 @@
     <t>19.5, -155.6</t>
   </si>
   <si>
-    <t>Mauna Loa | Hawaii</t>
-  </si>
-  <si>
     <t>Keeling Curve | Atmosphere | Carbon dioxide</t>
   </si>
   <si>
@@ -2111,33 +2108,9 @@
     <t>013</t>
   </si>
   <si>
-    <t>Alert | Northwest Territory | Canada</t>
-  </si>
-  <si>
-    <t>Point Barrow | Alaska</t>
-  </si>
-  <si>
-    <t>La Jolla | California</t>
-  </si>
-  <si>
-    <t>Baja California Sur | Mexico</t>
-  </si>
-  <si>
-    <t>Cape Kumukahi | Hawaii</t>
-  </si>
-  <si>
     <t>Samoa</t>
   </si>
   <si>
-    <t>Baring Head | New Zealand</t>
-  </si>
-  <si>
-    <t>Palmer Station | Antarctica</t>
-  </si>
-  <si>
-    <t>South Pole | Antarctica</t>
-  </si>
-  <si>
     <t>82.3, -62.3</t>
   </si>
   <si>
@@ -2169,12 +2142,6 @@
   </si>
   <si>
     <t>-41.4, 174.9</t>
-  </si>
-  <si>
-    <t>Christmas Island | Fanning Island</t>
-  </si>
-  <si>
-    <t>Kermadec Island | Raoul Island</t>
   </si>
   <si>
     <t>1985 - present</t>
@@ -2532,9 +2499,6 @@
     <t>Keeling, Ralph F; Keeling, Charles D (2017): Atmospheric CO2 Data - Palmer Station, Antarctica. In Scripps CO2 Program Data. UC San Diego Library Digital Collections.</t>
   </si>
   <si>
-    <t>Weather Station Papa | North Pacific</t>
-  </si>
-  <si>
     <t>Keeling, Ralph F.</t>
   </si>
   <si>
@@ -2545,6 +2509,54 @@
   </si>
   <si>
     <t>Scripps CO2 Program | Scripps Institution of Oceanography</t>
+  </si>
+  <si>
+    <t>Alert (Canada) | Northwest Territory | Canada</t>
+  </si>
+  <si>
+    <t>Point Barrow (Alaska)</t>
+  </si>
+  <si>
+    <t>La Jolla (California)</t>
+  </si>
+  <si>
+    <t>Mauna Loa (Hawaii)</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2016-01-01</t>
+  </si>
+  <si>
+    <t>Cape Kumukahi (Hawaii)</t>
+  </si>
+  <si>
+    <t>Christmas Island (Kiribati) | Fanning Island (Kiribati)</t>
+  </si>
+  <si>
+    <t>Kermadec Islands | Raoul Island (Kermadec Islands)</t>
+  </si>
+  <si>
+    <t>Baring Head (New Zealand)</t>
+  </si>
+  <si>
+    <t>South Pole (Antarctica)</t>
+  </si>
+  <si>
+    <t>Keeling Curve | Atmosphere | Carbon dioxide | Weather Station Papa</t>
+  </si>
+  <si>
+    <t>North Pacific Ocean</t>
+  </si>
+  <si>
+    <t>Baja California Sur (Mexico)</t>
+  </si>
+  <si>
+    <t>Palmer Station</t>
+  </si>
+  <si>
+    <t>Antarctica</t>
   </si>
 </sst>
 </file>
@@ -3655,11 +3667,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W15"/>
+  <dimension ref="A1:Y15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3675,20 +3687,22 @@
     <col min="9" max="9" width="17.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.85546875" style="3" customWidth="1"/>
     <col min="11" max="11" width="27.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.5703125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="3" customWidth="1"/>
     <col min="13" max="13" width="14" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="64.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="31.7109375" style="23" customWidth="1"/>
-    <col min="18" max="18" width="18.28515625" style="23" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="63" style="3" customWidth="1"/>
-    <col min="20" max="20" width="42.85546875" style="3" customWidth="1"/>
-    <col min="21" max="21" width="18.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="70.7109375" style="3" customWidth="1"/>
+    <col min="14" max="14" width="14" style="3" customWidth="1"/>
+    <col min="15" max="16" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="64.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="31.7109375" style="23" customWidth="1"/>
+    <col min="19" max="19" width="18.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="63" style="3" customWidth="1"/>
+    <col min="21" max="21" width="42.85546875" style="3" customWidth="1"/>
+    <col min="22" max="22" width="18.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.5703125" style="3" customWidth="1"/>
+    <col min="24" max="24" width="16.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="70.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>338</v>
       </c>
@@ -3729,45 +3743,51 @@
         <v>489</v>
       </c>
       <c r="N1" s="16" t="s">
+        <v>487</v>
+      </c>
+      <c r="O1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="P1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="Q1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="25" t="s">
+      <c r="R1" s="25" t="s">
         <v>354</v>
       </c>
-      <c r="R1" s="25" t="s">
+      <c r="S1" s="25" t="s">
         <v>506</v>
       </c>
-      <c r="S1" s="16" t="s">
+      <c r="T1" s="16" t="s">
         <v>352</v>
       </c>
-      <c r="T1" s="16" t="s">
+      <c r="U1" s="16" t="s">
         <v>460</v>
       </c>
-      <c r="U1" s="16" t="s">
+      <c r="V1" s="16" t="s">
         <v>455</v>
       </c>
-      <c r="V1" s="16" t="s">
+      <c r="W1" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="X1" s="16" t="s">
         <v>446</v>
       </c>
-      <c r="W1" s="16" t="s">
+      <c r="Y1" s="16" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>751</v>
+        <v>740</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>485</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>705</v>
+        <v>694</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>403</v>
@@ -3779,66 +3799,66 @@
         <v>361</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>694</v>
+        <v>683</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>772</v>
+        <v>760</v>
       </c>
       <c r="I2" s="23" t="s">
-        <v>773</v>
+        <v>761</v>
       </c>
       <c r="J2" s="23" t="s">
-        <v>774</v>
+        <v>762</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>775</v>
+        <v>763</v>
       </c>
       <c r="L2" s="23" t="s">
-        <v>718</v>
+        <v>707</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>669</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>679</v>
+        <v>658</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="P2" s="22" t="s">
-        <v>721</v>
-      </c>
-      <c r="Q2" s="24" t="s">
-        <v>734</v>
+        <v>668</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="Q2" s="22" t="s">
+        <v>710</v>
       </c>
       <c r="R2" s="24" t="s">
-        <v>757</v>
-      </c>
-      <c r="S2" s="23" t="s">
-        <v>758</v>
-      </c>
-      <c r="T2" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="S2" s="24" t="s">
+        <v>746</v>
+      </c>
+      <c r="T2" s="23" t="s">
+        <v>747</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="Y2" s="23" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="105" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>632</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>647</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>656</v>
-      </c>
-      <c r="W2" s="23" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" ht="105" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>633</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>485</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>714</v>
+        <v>703</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>403</v>
@@ -3850,66 +3870,66 @@
         <v>361</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>695</v>
+        <v>684</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>772</v>
+        <v>760</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>773</v>
+        <v>761</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>774</v>
+        <v>762</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>775</v>
+        <v>763</v>
       </c>
       <c r="L3" s="23" t="s">
-        <v>718</v>
+        <v>707</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>670</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>680</v>
+        <v>659</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>722</v>
-      </c>
-      <c r="Q3" s="24" t="s">
-        <v>734</v>
+        <v>666</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>711</v>
       </c>
       <c r="R3" s="24" t="s">
-        <v>757</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>759</v>
+        <v>723</v>
+      </c>
+      <c r="S3" s="24" t="s">
+        <v>746</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>632</v>
+        <v>748</v>
       </c>
       <c r="U3" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="X3" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="V3" s="3" t="s">
-        <v>657</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" ht="75" x14ac:dyDescent="0.25">
+      <c r="Y3" s="3" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>485</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>710</v>
+        <v>699</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>403</v>
@@ -3921,66 +3941,66 @@
         <v>361</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>697</v>
+        <v>686</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>772</v>
+        <v>760</v>
       </c>
       <c r="I4" s="23" t="s">
-        <v>773</v>
+        <v>761</v>
       </c>
       <c r="J4" s="23" t="s">
-        <v>774</v>
+        <v>762</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>775</v>
+        <v>763</v>
       </c>
       <c r="L4" s="23" t="s">
-        <v>718</v>
+        <v>707</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>635</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>682</v>
+        <v>634</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="P4" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="R4" s="24" t="s">
         <v>723</v>
       </c>
-      <c r="Q4" s="24" t="s">
-        <v>734</v>
-      </c>
-      <c r="R4" s="24" t="s">
-        <v>757</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>760</v>
+      <c r="S4" s="24" t="s">
+        <v>746</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>632</v>
+        <v>749</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>649</v>
+        <v>631</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>659</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+        <v>766</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>485</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>403</v>
@@ -3992,66 +4012,66 @@
         <v>361</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>699</v>
+        <v>688</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>772</v>
+        <v>760</v>
       </c>
       <c r="I5" s="23" t="s">
-        <v>773</v>
+        <v>761</v>
       </c>
       <c r="J5" s="23" t="s">
-        <v>774</v>
+        <v>762</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>775</v>
+        <v>763</v>
       </c>
       <c r="L5" s="23" t="s">
-        <v>718</v>
+        <v>707</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>629</v>
       </c>
-      <c r="N5" s="3" t="s">
-        <v>678</v>
-      </c>
       <c r="O5" s="3" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>724</v>
-      </c>
-      <c r="Q5" s="24" t="s">
-        <v>734</v>
+        <v>666</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>713</v>
       </c>
       <c r="R5" s="24" t="s">
-        <v>757</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>761</v>
+        <v>723</v>
+      </c>
+      <c r="S5" s="24" t="s">
+        <v>746</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>632</v>
+        <v>750</v>
       </c>
       <c r="U5" s="3" t="s">
         <v>631</v>
       </c>
       <c r="V5" s="3" t="s">
+        <v>767</v>
+      </c>
+      <c r="X5" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="W5" s="3" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" ht="75" x14ac:dyDescent="0.25">
+      <c r="Y5" s="3" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>485</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>709</v>
+        <v>698</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>403</v>
@@ -4063,66 +4083,66 @@
         <v>361</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>700</v>
+        <v>689</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>772</v>
+        <v>760</v>
       </c>
       <c r="I6" s="23" t="s">
-        <v>773</v>
+        <v>761</v>
       </c>
       <c r="J6" s="23" t="s">
-        <v>774</v>
+        <v>762</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>775</v>
+        <v>763</v>
       </c>
       <c r="L6" s="23" t="s">
-        <v>718</v>
+        <v>707</v>
       </c>
       <c r="M6" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="O6" s="3" t="s">
         <v>673</v>
       </c>
-      <c r="N6" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="P6" s="22" t="s">
-        <v>725</v>
-      </c>
-      <c r="Q6" s="24" t="s">
-        <v>734</v>
+      <c r="P6" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="Q6" s="22" t="s">
+        <v>714</v>
       </c>
       <c r="R6" s="24" t="s">
-        <v>757</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>762</v>
+        <v>723</v>
+      </c>
+      <c r="S6" s="24" t="s">
+        <v>746</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>632</v>
+        <v>751</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>651</v>
+        <v>631</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>661</v>
-      </c>
-      <c r="W6" s="3" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" ht="75" x14ac:dyDescent="0.25">
+        <v>770</v>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>485</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>707</v>
+        <v>696</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>403</v>
@@ -4134,66 +4154,66 @@
         <v>361</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>727</v>
+        <v>716</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>772</v>
+        <v>760</v>
       </c>
       <c r="I7" s="23" t="s">
-        <v>773</v>
+        <v>761</v>
       </c>
       <c r="J7" s="23" t="s">
-        <v>774</v>
+        <v>762</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>775</v>
+        <v>763</v>
       </c>
       <c r="L7" s="23" t="s">
-        <v>718</v>
+        <v>707</v>
       </c>
       <c r="M7" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="O7" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="N7" s="3" t="s">
-        <v>685</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>677</v>
-      </c>
       <c r="P7" s="3" t="s">
-        <v>726</v>
-      </c>
-      <c r="Q7" s="24" t="s">
-        <v>734</v>
+        <v>666</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>715</v>
       </c>
       <c r="R7" s="24" t="s">
-        <v>757</v>
-      </c>
-      <c r="S7" s="3" t="s">
-        <v>763</v>
+        <v>723</v>
+      </c>
+      <c r="S7" s="24" t="s">
+        <v>746</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>632</v>
+        <v>752</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>667</v>
+        <v>631</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>662</v>
-      </c>
-      <c r="W7" s="3" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" ht="75" x14ac:dyDescent="0.25">
+        <v>771</v>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>485</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>715</v>
+        <v>704</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>403</v>
@@ -4205,66 +4225,66 @@
         <v>361</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>701</v>
+        <v>690</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>772</v>
+        <v>760</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>773</v>
+        <v>761</v>
       </c>
       <c r="J8" s="23" t="s">
-        <v>774</v>
+        <v>762</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>775</v>
+        <v>763</v>
       </c>
       <c r="L8" s="23" t="s">
-        <v>718</v>
+        <v>707</v>
       </c>
       <c r="M8" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="O8" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>686</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="P8" s="22" t="s">
-        <v>728</v>
-      </c>
-      <c r="Q8" s="24" t="s">
-        <v>734</v>
+      <c r="P8" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="Q8" s="22" t="s">
+        <v>717</v>
       </c>
       <c r="R8" s="24" t="s">
-        <v>757</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>764</v>
+        <v>723</v>
+      </c>
+      <c r="S8" s="24" t="s">
+        <v>746</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>632</v>
+        <v>753</v>
       </c>
       <c r="U8" s="3" t="s">
-        <v>652</v>
+        <v>631</v>
       </c>
       <c r="V8" s="3" t="s">
-        <v>664</v>
-      </c>
-      <c r="W8" s="3" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" ht="75" x14ac:dyDescent="0.25">
+        <v>646</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>485</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>708</v>
+        <v>697</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>403</v>
@@ -4276,66 +4296,66 @@
         <v>361</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>729</v>
+        <v>718</v>
       </c>
       <c r="H9" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>761</v>
+      </c>
+      <c r="J9" s="23" t="s">
+        <v>762</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="L9" s="23" t="s">
+        <v>707</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="R9" s="24" t="s">
+        <v>723</v>
+      </c>
+      <c r="S9" s="24" t="s">
+        <v>746</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="V9" s="3" t="s">
         <v>772</v>
       </c>
-      <c r="I9" s="23" t="s">
-        <v>773</v>
-      </c>
-      <c r="J9" s="23" t="s">
-        <v>774</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>775</v>
-      </c>
-      <c r="L9" s="23" t="s">
-        <v>718</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>719</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>687</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>691</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>730</v>
-      </c>
-      <c r="Q9" s="24" t="s">
-        <v>734</v>
-      </c>
-      <c r="R9" s="24" t="s">
-        <v>757</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>765</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="U9" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="V9" s="3" t="s">
-        <v>663</v>
-      </c>
-      <c r="W9" s="3" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" ht="75" x14ac:dyDescent="0.25">
+      <c r="X9" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>485</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>712</v>
+        <v>701</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>403</v>
@@ -4347,66 +4367,66 @@
         <v>361</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>702</v>
+        <v>691</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>772</v>
+        <v>760</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>773</v>
+        <v>761</v>
       </c>
       <c r="J10" s="23" t="s">
-        <v>774</v>
+        <v>762</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>775</v>
+        <v>763</v>
       </c>
       <c r="L10" s="23" t="s">
-        <v>718</v>
+        <v>707</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>676</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>688</v>
+        <v>665</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>677</v>
       </c>
-      <c r="P10" s="22" t="s">
+      <c r="P10" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="Q10" s="22" t="s">
+        <v>721</v>
+      </c>
+      <c r="R10" s="24" t="s">
+        <v>723</v>
+      </c>
+      <c r="S10" s="24" t="s">
+        <v>746</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="Y10" s="3" t="s">
         <v>732</v>
       </c>
-      <c r="Q10" s="24" t="s">
-        <v>734</v>
-      </c>
-      <c r="R10" s="24" t="s">
-        <v>757</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>766</v>
-      </c>
-      <c r="T10" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="U10" s="3" t="s">
-        <v>653</v>
-      </c>
-      <c r="V10" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="W10" s="3" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>485</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>716</v>
+        <v>705</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>403</v>
@@ -4418,66 +4438,66 @@
         <v>361</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>704</v>
+        <v>693</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>772</v>
+        <v>760</v>
       </c>
       <c r="I11" s="23" t="s">
-        <v>773</v>
+        <v>761</v>
       </c>
       <c r="J11" s="23" t="s">
+        <v>762</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="L11" s="23" t="s">
+        <v>707</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="Q11" s="22" t="s">
+        <v>720</v>
+      </c>
+      <c r="R11" s="24" t="s">
+        <v>723</v>
+      </c>
+      <c r="S11" s="24" t="s">
+        <v>746</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="V11" s="3" t="s">
         <v>774</v>
       </c>
-      <c r="K11" s="3" t="s">
-        <v>775</v>
-      </c>
-      <c r="L11" s="23" t="s">
-        <v>718</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>635</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>682</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>691</v>
-      </c>
-      <c r="P11" s="22" t="s">
-        <v>731</v>
-      </c>
-      <c r="Q11" s="24" t="s">
-        <v>734</v>
-      </c>
-      <c r="R11" s="24" t="s">
-        <v>757</v>
-      </c>
-      <c r="S11" s="3" t="s">
-        <v>767</v>
-      </c>
-      <c r="T11" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="U11" s="3" t="s">
-        <v>655</v>
-      </c>
-      <c r="V11" s="3" t="s">
-        <v>634</v>
-      </c>
-      <c r="W11" s="3" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" ht="75" x14ac:dyDescent="0.25">
+      <c r="X11" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="Y11" s="3" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>485</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>717</v>
+        <v>706</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>403</v>
@@ -4489,66 +4509,67 @@
         <v>361</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>696</v>
+        <v>685</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>772</v>
+        <v>760</v>
       </c>
       <c r="I12" s="23" t="s">
-        <v>773</v>
+        <v>761</v>
       </c>
       <c r="J12" s="23" t="s">
-        <v>774</v>
+        <v>762</v>
       </c>
       <c r="K12" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="L12" s="23" t="s">
+        <v>707</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q12" s="22" t="s">
+        <v>737</v>
+      </c>
+      <c r="R12" s="24" t="s">
+        <v>722</v>
+      </c>
+      <c r="S12" s="24" t="s">
+        <v>746</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="U12" s="3" t="s">
         <v>775</v>
       </c>
-      <c r="L12" s="23" t="s">
-        <v>718</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>681</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>693</v>
-      </c>
-      <c r="P12" s="22" t="s">
-        <v>748</v>
-      </c>
-      <c r="Q12" s="24" t="s">
-        <v>733</v>
-      </c>
-      <c r="R12" s="24" t="s">
-        <v>757</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>768</v>
-      </c>
-      <c r="T12" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="U12" s="23" t="s">
-        <v>771</v>
-      </c>
-      <c r="V12" s="3" t="s">
-        <v>658</v>
-      </c>
-      <c r="W12" s="3" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" ht="75" x14ac:dyDescent="0.25">
+      <c r="V12" s="23" t="s">
+        <v>776</v>
+      </c>
+      <c r="W12" s="23"/>
+      <c r="X12" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>485</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>706</v>
+        <v>695</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>403</v>
@@ -4560,66 +4581,66 @@
         <v>361</v>
       </c>
       <c r="G13" s="23" t="s">
-        <v>698</v>
+        <v>687</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>772</v>
+        <v>760</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>773</v>
+        <v>761</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>774</v>
+        <v>762</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>775</v>
+        <v>763</v>
       </c>
       <c r="L13" s="23" t="s">
-        <v>718</v>
+        <v>707</v>
       </c>
       <c r="M13" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="O13" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="N13" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>692</v>
-      </c>
-      <c r="P13" s="22" t="s">
-        <v>749</v>
-      </c>
-      <c r="Q13" s="24" t="s">
-        <v>733</v>
+      <c r="P13" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="Q13" s="22" t="s">
+        <v>738</v>
       </c>
       <c r="R13" s="24" t="s">
-        <v>757</v>
-      </c>
-      <c r="S13" s="3" t="s">
-        <v>769</v>
+        <v>722</v>
+      </c>
+      <c r="S13" s="24" t="s">
+        <v>746</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>632</v>
+        <v>758</v>
       </c>
       <c r="U13" s="3" t="s">
-        <v>650</v>
+        <v>631</v>
       </c>
       <c r="V13" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="W13" s="3" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" ht="75" x14ac:dyDescent="0.25">
+        <v>777</v>
+      </c>
+      <c r="X13" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="Y13" s="3" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>485</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>713</v>
+        <v>702</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>403</v>
@@ -4631,91 +4652,112 @@
         <v>361</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>703</v>
+        <v>692</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>772</v>
+        <v>760</v>
       </c>
       <c r="I14" s="23" t="s">
-        <v>773</v>
+        <v>761</v>
       </c>
       <c r="J14" s="23" t="s">
-        <v>774</v>
+        <v>762</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>775</v>
+        <v>763</v>
       </c>
       <c r="L14" s="23" t="s">
-        <v>718</v>
+        <v>707</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>720</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>689</v>
+        <v>709</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>690</v>
+        <v>678</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>750</v>
-      </c>
-      <c r="Q14" s="24" t="s">
-        <v>733</v>
+        <v>679</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>739</v>
       </c>
       <c r="R14" s="24" t="s">
-        <v>757</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>770</v>
+        <v>722</v>
+      </c>
+      <c r="S14" s="24" t="s">
+        <v>746</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>632</v>
+        <v>759</v>
       </c>
       <c r="U14" s="3" t="s">
-        <v>654</v>
+        <v>631</v>
       </c>
       <c r="V14" s="3" t="s">
-        <v>665</v>
+        <v>779</v>
       </c>
       <c r="W14" s="3" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" ht="75" x14ac:dyDescent="0.25">
+        <v>778</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>752</v>
+        <v>741</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>485</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>753</v>
+        <v>742</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>361</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>755</v>
+        <v>744</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>772</v>
+        <v>760</v>
       </c>
       <c r="I15" s="23" t="s">
-        <v>773</v>
+        <v>761</v>
       </c>
       <c r="J15" s="23" t="s">
-        <v>774</v>
+        <v>762</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>775</v>
+        <v>763</v>
       </c>
       <c r="L15" s="23"/>
+      <c r="N15" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>769</v>
+      </c>
       <c r="P15" s="3" t="s">
-        <v>754</v>
-      </c>
-      <c r="T15" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="W15" s="3" t="s">
-        <v>756</v>
+        <v>666</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="Y15" s="3" t="s">
+        <v>745</v>
       </c>
     </row>
   </sheetData>
@@ -4741,7 +4783,7 @@
   <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="10">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="9">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid header" error="Please select a header from the drop-down list" prompt="Please select a header from the drop-down list">
           <x14:formula1>
             <xm:f>'Select-a-header values'!$A$1:$A$7</xm:f>
@@ -4752,25 +4794,25 @@
           <x14:formula1>
             <xm:f>'Select-a-header values'!$D$1:$D$6</xm:f>
           </x14:formula1>
-          <xm:sqref>L1:M1</xm:sqref>
+          <xm:sqref>L1:N1</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid header" error="Please select a header from the drop-down list" prompt="Please select a header from the drop-down list">
           <x14:formula1>
             <xm:f>'Select-a-header values'!$G$1:$G$17</xm:f>
           </x14:formula1>
-          <xm:sqref>T1:U1</xm:sqref>
+          <xm:sqref>U1:W1</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid header" error="Please select a header from the drop-down list" prompt="Please select a header from the drop-down list">
           <x14:formula1>
             <xm:f>'Select-a-header values'!$H$1:$H$7</xm:f>
           </x14:formula1>
-          <xm:sqref>V1</xm:sqref>
+          <xm:sqref>X1</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid header" error="Please select a header from the drop-down list" prompt="Please select a header from the drop-down list">
           <x14:formula1>
             <xm:f>'Select-a-header values'!$I$1:$I$12</xm:f>
           </x14:formula1>
-          <xm:sqref>W1</xm:sqref>
+          <xm:sqref>Y1</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid entry" error="Please choose a value from the dropdown list" prompt="Please choose a value from the dropdown list">
           <x14:formula1>
@@ -4788,19 +4830,13 @@
           <x14:formula1>
             <xm:f>'Select-a-header values'!$E$1:$E$34</xm:f>
           </x14:formula1>
-          <xm:sqref>P1:S1</xm:sqref>
+          <xm:sqref>Q1:T1</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid header" error="Please select a header from the drop-down list" prompt="Please select a header from the drop-down list">
           <x14:formula1>
             <xm:f>'[1]Select-a-header values'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>H1:J1</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid header" error="Please select a header from the drop-down list" prompt="Please select a header from the drop-down list">
-          <x14:formula1>
-            <xm:f>'[1]Select-a-header values'!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>K1</xm:sqref>
+          <xm:sqref>H1:K1</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
